--- a/biology/Biochimie/Orotate/Orotate.xlsx
+++ b/biology/Biochimie/Orotate/Orotate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les orotates sont des sels minéraux de l’acide orotique, une substance naturelle que l’on trouve dans notre organisme et dans différents aliments incluant les produits laitiers.
 Les orotates ont la faculté de déposer les minéraux à l'intérieur de la cellule au niveau du noyau cellulaire et des mitochondries, assurant ainsi une minéralisation optimale.
@@ -512,7 +524,9 @@
           <t>Orotates en pharmacie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Orotate de chrome
 Orotate de fer
